--- a/Gangbuk_edit2/Jongnogu_edit2.xlsx
+++ b/Gangbuk_edit2/Jongnogu_edit2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimyihwan\OneDrive - kaist.ac.kr\Prokim\web scraping\Gangbuk_edit2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_ECF21F9B4A5732E38A170B36DBDFE87D512C0919" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D01E5127-7556-4003-9FAE-83E8E0C1F4E8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edit2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="304">
   <si>
     <t>읍면동</t>
   </si>
@@ -283,30 +289,15 @@
     <t>갑을</t>
   </si>
   <si>
-    <t>광화문Space本1단지</t>
-  </si>
-  <si>
-    <t>광화문Space本2단지</t>
-  </si>
-  <si>
     <t>낙원</t>
   </si>
   <si>
-    <t>동대문</t>
-  </si>
-  <si>
     <t>로얄팰리스스위트</t>
   </si>
   <si>
     <t>롯데캐슬천지인</t>
   </si>
   <si>
-    <t>쌍용1차</t>
-  </si>
-  <si>
-    <t>쌍용2차</t>
-  </si>
-  <si>
     <t>효성주얼리시티</t>
   </si>
   <si>
@@ -454,9 +445,6 @@
     <t>69A㎡</t>
   </si>
   <si>
-    <t>89㎡</t>
-  </si>
-  <si>
     <t>82A㎡</t>
   </si>
   <si>
@@ -478,9 +466,6 @@
     <t>108.23㎡/39.21㎡(전용률 36%)</t>
   </si>
   <si>
-    <t>128.42㎡/84.84㎡(전용률 66%)</t>
-  </si>
-  <si>
     <t>82.6㎡/59.85㎡(전용률 72%)</t>
   </si>
   <si>
@@ -541,9 +526,6 @@
     <t>69B㎡</t>
   </si>
   <si>
-    <t>128㎡</t>
-  </si>
-  <si>
     <t>83B㎡</t>
   </si>
   <si>
@@ -938,17 +920,33 @@
   </si>
   <si>
     <t>102.73㎡/78.23㎡(전용률 76%)</t>
+  </si>
+  <si>
+    <t>광화문풍림스페이스본1단지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광화문풍림스페이스본2단지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창신쌍용1단지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창신쌍용2단지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -956,8 +954,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1003,15 +1008,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1053,7 +1066,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1085,9 +1098,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,6 +1150,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1294,14 +1343,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BY16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1585,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1548,7 +1602,7 @@
         <v>1997.08</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>9</v>
       </c>
@@ -1556,7 +1610,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="D3">
         <v>145</v>
@@ -1565,115 +1619,115 @@
         <v>2008.07</v>
       </c>
       <c r="R3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="S3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="T3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="U3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="V3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="W3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="X3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Y3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Z3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AA3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AB3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AC3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AE3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AF3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AG3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AH3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AI3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AJ3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AK3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AL3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AM3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AN3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AO3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AP3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AQ3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AR3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AS3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AT3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AU3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AV3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AW3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AX3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AY3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AZ3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BA3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -1681,7 +1735,7 @@
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="D4">
         <v>22</v>
@@ -1690,7 +1744,7 @@
         <v>2007.12</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>11</v>
       </c>
@@ -1698,7 +1752,7 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -1707,1525 +1761,1473 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1966.05</v>
-      </c>
-      <c r="R6" t="s">
-        <v>146</v>
-      </c>
-      <c r="S6" t="s">
-        <v>154</v>
-      </c>
-      <c r="T6" t="s">
-        <v>162</v>
-      </c>
-      <c r="U6" t="s">
-        <v>163</v>
-      </c>
-      <c r="V6" t="s">
-        <v>164</v>
-      </c>
-      <c r="W6" t="s">
-        <v>167</v>
-      </c>
-      <c r="X6" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>167</v>
+        <v>2005.03</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>2005.03</v>
+        <v>2004.1</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>302</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="E8">
-        <v>2004.1</v>
+        <v>1992.11</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="D9">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="E9">
-        <v>1992.11</v>
+        <v>1993.1</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="E10">
-        <v>1993.1</v>
+        <v>2006.1</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>342</v>
       </c>
       <c r="E11">
-        <v>2006.1</v>
+        <v>2017.02</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11">
+        <v>109379</v>
+      </c>
+      <c r="P11">
+        <v>37.570875999999998</v>
+      </c>
+      <c r="Q11">
+        <v>126.963882</v>
+      </c>
+      <c r="R11" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" t="s">
+        <v>148</v>
+      </c>
+      <c r="T11" t="s">
+        <v>155</v>
+      </c>
+      <c r="U11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V11" t="s">
+        <v>158</v>
+      </c>
+      <c r="W11" t="s">
+        <v>161</v>
+      </c>
+      <c r="X11" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>249</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>251</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>268</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>275</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>281</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>158</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>287</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>289</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>295</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>158</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>342</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>2017.02</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O12">
-        <v>109379</v>
+        <v>110125</v>
       </c>
       <c r="P12">
-        <v>37.570876</v>
+        <v>37.569144000000001</v>
       </c>
       <c r="Q12">
-        <v>126.963882</v>
+        <v>126.96598899999999</v>
       </c>
       <c r="R12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="S12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="T12" t="s">
+        <v>155</v>
+      </c>
+      <c r="U12" t="s">
+        <v>156</v>
+      </c>
+      <c r="V12" t="s">
+        <v>158</v>
+      </c>
+      <c r="W12" t="s">
         <v>162</v>
       </c>
-      <c r="U12" t="s">
-        <v>163</v>
-      </c>
-      <c r="V12" t="s">
-        <v>165</v>
-      </c>
-      <c r="W12" t="s">
-        <v>168</v>
-      </c>
       <c r="X12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Y12" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC12" t="s">
         <v>182</v>
       </c>
-      <c r="Z12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>189</v>
-      </c>
       <c r="AD12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AE12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI12" t="s">
         <v>201</v>
       </c>
-      <c r="AF12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>208</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AK12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AL12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AO12" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="AP12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>227</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU12" t="s">
         <v>234</v>
       </c>
-      <c r="AR12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>241</v>
-      </c>
       <c r="AV12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AW12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AX12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AY12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AZ12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="BA12" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="BB12" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="BC12" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>261</v>
+      </c>
+      <c r="BH12" t="s">
         <v>263</v>
       </c>
-      <c r="BD12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>268</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>270</v>
-      </c>
       <c r="BI12" t="s">
+        <v>269</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>274</v>
+      </c>
+      <c r="BN12" t="s">
         <v>276</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>168</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>283</v>
-      </c>
       <c r="BO12" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="BP12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="BQ12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="BR12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="BS12" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BT12" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="BU12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="BV12" t="s">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c r="BW12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="BX12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="BY12" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="E13">
-        <v>2017.02</v>
+        <v>1998.09</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s">
+        <v>135</v>
+      </c>
+      <c r="N13" t="s">
         <v>139</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13">
+        <v>3830</v>
+      </c>
+      <c r="P13">
+        <v>37.585717000000002</v>
+      </c>
+      <c r="Q13">
+        <v>127.00019899999999</v>
+      </c>
+      <c r="R13" t="s">
+        <v>143</v>
+      </c>
+      <c r="S13" t="s">
+        <v>150</v>
+      </c>
+      <c r="T13" t="s">
+        <v>156</v>
+      </c>
+      <c r="U13" t="s">
+        <v>154</v>
+      </c>
+      <c r="V13" t="s">
+        <v>157</v>
+      </c>
+      <c r="W13" t="s">
+        <v>163</v>
+      </c>
+      <c r="X13" t="s">
         <v>144</v>
       </c>
-      <c r="O13">
-        <v>110125</v>
-      </c>
-      <c r="P13">
-        <v>37.569144</v>
-      </c>
-      <c r="Q13">
-        <v>126.965989</v>
-      </c>
-      <c r="R13" t="s">
-        <v>148</v>
-      </c>
-      <c r="S13" t="s">
-        <v>156</v>
-      </c>
-      <c r="T13" t="s">
-        <v>162</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="Y13" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>257</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>264</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>270</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM13" t="s">
         <v>163</v>
       </c>
-      <c r="V13" t="s">
-        <v>165</v>
-      </c>
-      <c r="W13" t="s">
-        <v>169</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="BN13" t="s">
+        <v>277</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>286</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>291</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>297</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>286</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>156</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>2003.1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="s">
+        <v>136</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14">
+        <v>13511</v>
+      </c>
+      <c r="P14">
+        <v>37.577969000000003</v>
+      </c>
+      <c r="Q14">
+        <v>127.00995899999999</v>
+      </c>
+      <c r="R14" t="s">
+        <v>144</v>
+      </c>
+      <c r="S14" t="s">
+        <v>151</v>
+      </c>
+      <c r="T14" t="s">
+        <v>156</v>
+      </c>
+      <c r="U14" t="s">
+        <v>154</v>
+      </c>
+      <c r="V14" t="s">
+        <v>158</v>
+      </c>
+      <c r="W14" t="s">
+        <v>164</v>
+      </c>
+      <c r="X14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y14" t="s">
         <v>177</v>
       </c>
-      <c r="Y13" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="Z14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE14" t="s">
         <v>196</v>
       </c>
-      <c r="AE13" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>219</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV13" t="s">
+      <c r="AF14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW14" t="s">
         <v>246</v>
       </c>
-      <c r="AW13" t="s">
-        <v>252</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>211</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>260</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>264</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>269</v>
-      </c>
-      <c r="BH13" t="s">
+      <c r="AX14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>250</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>258</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>265</v>
+      </c>
+      <c r="BI14" t="s">
         <v>271</v>
       </c>
-      <c r="BI13" t="s">
-        <v>277</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>162</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>282</v>
-      </c>
-      <c r="BN13" t="s">
+      <c r="BJ14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>278</v>
+      </c>
+      <c r="BO14" t="s">
         <v>284</v>
       </c>
-      <c r="BO13" t="s">
-        <v>290</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>162</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>296</v>
-      </c>
-      <c r="BT13" t="s">
+      <c r="BP14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>158</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>292</v>
+      </c>
+      <c r="BU14" t="s">
         <v>298</v>
       </c>
-      <c r="BU13" t="s">
-        <v>304</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>294</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>163</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>165</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>193</v>
+      <c r="BV14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>158</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
-      <c r="A14" s="1">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>46</v>
-      </c>
-      <c r="E14">
-        <v>1998.09</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1998</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
         <v>104</v>
       </c>
-      <c r="G14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" t="s">
-        <v>135</v>
-      </c>
-      <c r="M14" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14" t="s">
-        <v>144</v>
-      </c>
-      <c r="O14">
-        <v>3830</v>
-      </c>
-      <c r="P14">
-        <v>37.585717</v>
-      </c>
-      <c r="Q14">
-        <v>127.000199</v>
-      </c>
-      <c r="R14" t="s">
-        <v>149</v>
-      </c>
-      <c r="S14" t="s">
-        <v>157</v>
-      </c>
-      <c r="T14" t="s">
-        <v>163</v>
-      </c>
-      <c r="U14" t="s">
-        <v>161</v>
-      </c>
-      <c r="V14" t="s">
-        <v>164</v>
-      </c>
-      <c r="W14" t="s">
-        <v>170</v>
-      </c>
-      <c r="X14" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>210</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>236</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>247</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>253</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>211</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>261</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>265</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>272</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>278</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>162</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>285</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>291</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>294</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>171</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>299</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>305</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>294</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:77">
-      <c r="A15" s="1">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>2003.1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" t="s">
-        <v>108</v>
-      </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s">
         <v>131</v>
       </c>
       <c r="M15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O15">
-        <v>13511</v>
+        <v>17383</v>
       </c>
       <c r="P15">
-        <v>37.577969</v>
+        <v>37.575324000000002</v>
       </c>
       <c r="Q15">
-        <v>127.009959</v>
+        <v>126.989085</v>
       </c>
       <c r="R15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="T15" t="s">
+        <v>156</v>
+      </c>
+      <c r="U15" t="s">
+        <v>154</v>
+      </c>
+      <c r="V15" t="s">
+        <v>157</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>259</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>266</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>272</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>216</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>285</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>293</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>299</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2015.08</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16">
+        <v>107071</v>
+      </c>
+      <c r="P16">
+        <v>37.575848000000001</v>
+      </c>
+      <c r="Q16">
+        <v>126.959547</v>
+      </c>
+      <c r="R16" t="s">
+        <v>146</v>
+      </c>
+      <c r="S16" t="s">
+        <v>153</v>
+      </c>
+      <c r="T16" t="s">
+        <v>155</v>
+      </c>
+      <c r="U16" t="s">
+        <v>156</v>
+      </c>
+      <c r="V16" t="s">
+        <v>158</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA16" t="s">
         <v>163</v>
       </c>
-      <c r="U15" t="s">
-        <v>161</v>
-      </c>
-      <c r="V15" t="s">
-        <v>165</v>
-      </c>
-      <c r="W15" t="s">
-        <v>171</v>
-      </c>
-      <c r="X15" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>192</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>225</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>230</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV15" t="s">
+      <c r="BH16" t="s">
+        <v>267</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>273</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>250</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>280</v>
+      </c>
+      <c r="BO16" t="s">
         <v>248</v>
       </c>
-      <c r="AW15" t="s">
-        <v>254</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>258</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>262</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>266</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>171</v>
-      </c>
-      <c r="BH15" t="s">
+      <c r="BP16" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>158</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>294</v>
+      </c>
+      <c r="BU16" t="s">
         <v>273</v>
       </c>
-      <c r="BI15" t="s">
-        <v>279</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>162</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>171</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>286</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>292</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>162</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>306</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>162</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>161</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>165</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:77">
-      <c r="A16" s="1">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>1998</v>
-      </c>
-      <c r="F16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" t="s">
-        <v>120</v>
-      </c>
-      <c r="J16" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O16">
-        <v>17383</v>
-      </c>
-      <c r="P16">
-        <v>37.575324</v>
-      </c>
-      <c r="Q16">
-        <v>126.989085</v>
-      </c>
-      <c r="R16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S16" t="s">
-        <v>159</v>
-      </c>
-      <c r="T16" t="s">
-        <v>163</v>
-      </c>
-      <c r="U16" t="s">
-        <v>161</v>
-      </c>
-      <c r="V16" t="s">
-        <v>164</v>
-      </c>
-      <c r="W16" t="s">
-        <v>172</v>
-      </c>
-      <c r="X16" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>231</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>238</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>243</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>255</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>164</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>172</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>164</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>280</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>162</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>164</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>224</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>287</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>293</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>162</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>172</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>307</v>
-      </c>
       <c r="BV16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="BW16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="BX16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="BY16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:77">
-      <c r="A17" s="1">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>2015.08</v>
-      </c>
-      <c r="F17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" t="s">
-        <v>144</v>
-      </c>
-      <c r="O17">
-        <v>107071</v>
-      </c>
-      <c r="P17">
-        <v>37.575848</v>
-      </c>
-      <c r="Q17">
-        <v>126.959547</v>
-      </c>
-      <c r="R17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S17" t="s">
-        <v>160</v>
-      </c>
-      <c r="T17" t="s">
-        <v>162</v>
-      </c>
-      <c r="U17" t="s">
-        <v>163</v>
-      </c>
-      <c r="V17" t="s">
-        <v>165</v>
-      </c>
-      <c r="W17" t="s">
-        <v>173</v>
-      </c>
-      <c r="X17" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>223</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>232</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>239</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>250</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>256</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>275</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>281</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>162</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>258</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>288</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>256</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>162</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>302</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>281</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>162</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>163</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>165</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>